--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_6_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_6_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,51 +589,51 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.5780827147485008, 1.2798177613131398]</t>
+          <t>[0.5723799473726952, 1.2855205286889455]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.018062704862601e-06</v>
+        <v>4.021944933985111e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.018062704862601e-06</v>
+        <v>4.021944933985111e-06</v>
       </c>
       <c r="O2" t="n">
         <v>0.7736053981812701</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[0.40881586082750054, 1.1383949355350396]</t>
+          <t>[0.39623691126357663, 1.1509738850989635]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>9.925957755663184e-05</v>
+        <v>0.0001558175739573286</v>
       </c>
       <c r="R2" t="n">
-        <v>9.925957755663184e-05</v>
+        <v>0.0001558175739573286</v>
       </c>
       <c r="S2" t="n">
         <v>0.1015630927365299</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.08122748205483654, 0.28435366752789626]</t>
+          <t>[-0.08128040901081435, 0.28440659448387406]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.2690410996958312</v>
+        <v>0.269177833574584</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2690410996958312</v>
+        <v>0.269177833574584</v>
       </c>
       <c r="W2" t="n">
         <v>20.61537537537586</v>
       </c>
       <c r="X2" t="n">
-        <v>19.25043043043088</v>
+        <v>19.20336336336381</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.98032032032084</v>
+        <v>22.0273873873879</v>
       </c>
     </row>
   </sheetData>
